--- a/PROJECT/BC/BC_EXCEL_SHEETS/Variable_Costs.xlsx
+++ b/PROJECT/BC/BC_EXCEL_SHEETS/Variable_Costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Role</t>
   </si>
@@ -42,22 +42,10 @@
     <t>Test Manager</t>
   </si>
   <si>
-    <t>System Architect</t>
-  </si>
-  <si>
     <t>Technical Documentation</t>
   </si>
   <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>Estimtated Total Variable Costs</t>
-  </si>
-  <si>
     <t>Adrian Khairi</t>
-  </si>
-  <si>
-    <t>Sophie Kirschner</t>
   </si>
   <si>
     <t>Janin Ahlemeyer</t>
@@ -108,9 +96,6 @@
     <t>GitHub</t>
   </si>
   <si>
-    <t>Variable Costs via Hourly Wages</t>
-  </si>
-  <si>
     <t>Variable Costs Via Work Packages</t>
   </si>
   <si>
@@ -124,6 +109,18 @@
   </si>
   <si>
     <t>Costs of 150 Hours</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>System Architect &amp; Software Developer</t>
+  </si>
+  <si>
+    <t>Variable Costs via Hourly Wages of each Role</t>
+  </si>
+  <si>
+    <t>Estimtated Variable Costs</t>
   </si>
 </sst>
 </file>
@@ -240,7 +237,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     </dxf>
@@ -369,7 +369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$C$5</c:f>
+              <c:f>Tabelle1!$C$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -423,7 +423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$6:$C$6</c:f>
+              <c:f>Tabelle1!$C$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -477,7 +477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$7:$C$7</c:f>
+              <c:f>Tabelle1!$C$7:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -505,7 +505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>System Architect</c:v>
+                  <c:v>System Architect &amp; Software Developer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,15 +531,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$8:$C$8</c:f>
+              <c:f>Tabelle1!$C$8:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13500</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +585,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$9:$C$9</c:f>
+              <c:f>Tabelle1!$C$9:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -609,11 +609,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$10</c:f>
+              <c:f>Tabelle1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Software Developer</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -639,15 +639,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$10:$C$10</c:f>
+              <c:f>Tabelle1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11250</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,6 +785,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -972,7 +973,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>925</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,7 +1024,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12025</c:v>
+                  <c:v>10725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1075,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3725</c:v>
+                  <c:v>6350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1126,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6625</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,7 +1177,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16900</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1228,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5750</c:v>
+                  <c:v>5425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,7 +1281,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11100</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1334,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5250</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1440,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3100</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,7 +1493,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5550</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1546,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8450</c:v>
+                  <c:v>7625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,26 +2907,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:C11" totalsRowShown="0">
-  <autoFilter ref="A4:C11"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:D10" totalsRowShown="0">
+  <autoFilter ref="A4:D10"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Role"/>
-    <tableColumn id="2" name="Hourly Wage"/>
-    <tableColumn id="3" name="Costs of 150 Hours" dataDxfId="0">
-      <calculatedColumnFormula>B5*150</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="Team Member"/>
+    <tableColumn id="3" name="Hourly Wage" dataDxfId="1"/>
+    <tableColumn id="4" name="Costs of 150 Hours" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="E4:K16" totalsRowShown="0">
-  <autoFilter ref="E4:K16"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="F4:K16" totalsRowShown="0">
+  <autoFilter ref="F4:K16"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Work Packages"/>
     <tableColumn id="2" name="Adrian Khairi"/>
-    <tableColumn id="3" name="Sophie Kirschner"/>
     <tableColumn id="4" name="Janin Ahlemeyer"/>
     <tableColumn id="5" name="Mika Kuge"/>
     <tableColumn id="6" name="Maris Koch"/>
@@ -3204,10 +3203,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3215,91 +3217,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A2:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
         <v>110</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:C10" si="0">B5*150</f>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D9" si="0">C5*150</f>
         <v>16500</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3314,32 +3316,32 @@
         <v>5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N5" s="6">
-        <f>B5*F5+B6*G5+B7*H5+B8*I5+B9*J5+B10*K5</f>
-        <v>925</v>
+        <f>C5*G5+C6*K5</f>
+        <v>1075</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <v>105</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>15750</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>30</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -3354,32 +3356,32 @@
         <v>25</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N6" s="6">
-        <f>B5*F6+B6*G6+B7*H6+B8*I6+B9*J6+B10*K6</f>
-        <v>12025</v>
+        <f>C5*G6+C6*K6+C7*H6+C8*I6+C9*J6</f>
+        <v>10725</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
         <v>90</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>13500</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
         <v>10</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3391,35 +3393,35 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="6">
+        <f>C5*G7+C6*K7+C7*H7+C8*I7+C9*J7</f>
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
         <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="6">
-        <f>B5*F7+B6*G7+B7*H7+B8*I7+B9*J7+B10*K7</f>
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>90</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -3431,35 +3433,35 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N8" s="6">
-        <f>B5*F8+B6*G8+B7*H8+B8*I8+B9*J8+B10*K8</f>
-        <v>6625</v>
+        <f>C5*G8+C6*K8+C7*H8+C8*I8+C9*J8</f>
+        <v>5800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
         <v>85</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>0</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
       </c>
       <c r="H9">
         <v>35</v>
@@ -3471,32 +3473,27 @@
         <v>40</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N9" s="6">
-        <f>B5*F9+B6*G9+B7*H9+B8*I9+B9*J9+B10*K9</f>
-        <v>16900</v>
+        <f>C5*G9+C6*K9+C7*H9+C8*I9+C9*J9</f>
+        <v>12600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>75</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" si="0"/>
-        <v>11250</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7">
+        <f>D5+D6+D7+D8+D9</f>
+        <v>73500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3511,29 +3508,21 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N10" s="6">
-        <f>B5*F10+B6*G10+B7*H10+B8*I10+B9*J10+B10*K10</f>
-        <v>5750</v>
+        <f>C5*G10+C6*K10+C7*H10+C8*I10+C9*J10</f>
+        <v>5425</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <f>C5+C6+C7+C8+C9+C10</f>
-        <v>83250</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="F11" t="s">
+        <v>17</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -3551,22 +3540,19 @@
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N11" s="6">
-        <f>B5*F11+B6*G11+B7*H11+B8*I11+B9*J11+B10*K11</f>
-        <v>11100</v>
+        <f>C5*G11+C6*K11+C7*H11+C8*I11+C9*J11</f>
+        <v>9800</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
         <v>15</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3581,22 +3567,19 @@
         <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N12" s="6">
-        <f>B5*F12+B6*G12+B7*H12+B8*I12+B9*J12+B10*K12</f>
-        <v>5250</v>
+        <f>C5*G12+C6*K12+C7*H12+C8*I12+C9*J12</f>
+        <v>2150</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
         <v>35</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3611,22 +3594,19 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N13" s="6">
-        <f>B5*F13+B6*G13+B7*H13+B8*I13+B9*J13+B10*K13</f>
+        <f>C5*G13+C6*K13+C7*H13+C8*I13+C9*J13</f>
         <v>3850</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3641,19 +3621,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N14" s="6">
-        <f>B5*F14+B6*G14+B7*H14+B8*I14+B9*J14+B10*K14</f>
-        <v>3100</v>
+        <f>C5*G14+C6*K14+C7*H14+C8*I14+C9*J14</f>
+        <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>21</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -3671,22 +3648,19 @@
         <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="6">
-        <f>B5*F15+B6*G15+B7*H15+B8*I15+B9*J15+B10*K15</f>
-        <v>5550</v>
+        <f>C5*G15+C6*K15+C7*H15+C8*I15+C9*J15</f>
+        <v>4900</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
         <v>5</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -3701,25 +3675,28 @@
         <v>20</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N16" s="6">
-        <f>B5*F16+B6*G16+B7*H16+B8*I16+B9*J16+B10*K16</f>
-        <v>8450</v>
+        <f>C5*G16+C6*K16+C7*H16+C8*I16+C9*J16</f>
+        <v>7625</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M17" s="9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N17" s="11">
         <f>N5+N6+N7+N8+N9+N10+N11+N12+N13+N14+N15+N16</f>
-        <v>83250</v>
+        <v>73500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>
